--- a/data/trans_bre/P10_1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P10_1-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,8</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,09%</t>
+          <t>-4,82%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,44%</t>
+          <t>-4,38%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 3,06</t>
+          <t>-16,95; 8,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 7,03</t>
+          <t>-13,13; 7,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 5,04</t>
+          <t>-20,61; 11,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 11,19</t>
+          <t>-16,56; 11,18</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>-0,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,61%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 5,04</t>
+          <t>-4,74; 4,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 5,93</t>
+          <t>-2,92; 6,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 5,9</t>
+          <t>-5,09; 5,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 6,88</t>
+          <t>-3,11; 7,25</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,04%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>4,02%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 2,98</t>
+          <t>-4,11; 8,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 8,73</t>
+          <t>-2,22; 10,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 3,29</t>
+          <t>-4,36; 10,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 10,22</t>
+          <t>-2,37; 12,04</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,0%</t>
+          <t>-3,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,44%</t>
+          <t>-3,8%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 1,19</t>
+          <t>-7,04; 0,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 3,05</t>
+          <t>-7,77; 2,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 1,43</t>
+          <t>-8,27; 0,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 3,65</t>
+          <t>-8,81; 2,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,63</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,64</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-1,92%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-4,55; 1,16</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,44; 2,65</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-5,25; 1,42</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,93; 3,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P10_1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P10_1-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-3,66</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,3</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-4,82%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-4,38%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-3.659158260623097</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-3.447473354864738</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.04816218392765454</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.04620273064634527</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-16,95; 8,36</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-13,13; 7,66</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-20,61; 11,61</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-16,56; 11,18</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-16.95440666693174</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-13.66259417577007</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.2060751592307641</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.1716214800896429</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.364225118216913</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.561274813311744</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.1160744508785154</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.1118304016866284</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,44</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,08%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,61%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,74; 4,87</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,92; 6,28</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,09; 5,68</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,11; 7,25</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.0727951028750784</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.469834865388453</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.0008058802011928208</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.01636804770494002</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,56</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,7%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,02%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.741979912753953</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.544754884243175</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.05090887583820488</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.02745332828745978</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,11; 8,52</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,22; 10,07</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,36; 10,0</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; 12,04</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.869347773127776</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.110393837715386</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.05678967625307734</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.07091213973787938</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-2,94</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-3,25</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-3,54%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-3,8%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.535493886256933</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.074826559511767</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.01704117252022642</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.0343891486019902</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-7,04; 0,64</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-7,77; 2,38</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-8,27; 0,78</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-8,81; 2,92</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.106786654786516</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.378459109850271</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.04361268049619108</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.02452673581133601</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.519489621773738</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.775598239476846</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.1000295139115241</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.1162615201091909</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,63</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,64</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,92%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,74%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-4,55; 1,16</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,44; 2,65</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-5,25; 1,42</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-3,93; 3,14</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.1817362076729223</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.7087729447587621</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.002069555317902024</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.008130172270461164</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.767981319516682</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.753988289762653</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.04209898627752186</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.03062645856144516</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.643036524321778</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.34550608850058</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.04296245528431447</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.05161833898616147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
